--- a/data/trans_dic/P7C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,35</t>
+          <t>4,3; 27,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 40,61</t>
+          <t>2,99; 25,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 23,92</t>
+          <t>3,39; 27,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,82</t>
+          <t>2,68; 25,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 14,2</t>
+          <t>14,14; 79,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,21</t>
+          <t>5,32; 24,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,95</t>
+          <t>3,86; 24,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,84</t>
+          <t>4,85; 22,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 12,88</t>
+          <t>3,54; 22,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 25,85</t>
+          <t>6,56; 47,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,08</t>
+          <t>6,6; 21,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 14,27</t>
+          <t>6,05; 21,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 21,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 20,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 59,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>18,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 23,32</t>
+          <t>7,71; 30,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 23,33</t>
+          <t>7,41; 31,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 20,21</t>
+          <t>7,14; 26,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 23,86</t>
+          <t>8,33; 30,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 25,08</t>
+          <t>12,43; 37,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 27,54</t>
+          <t>15,71; 27,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 26,66</t>
+          <t>16,46; 28,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 25,85</t>
+          <t>14,95; 27,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 22,08</t>
+          <t>14,57; 27,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 22,82</t>
+          <t>16,87; 29,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,31</t>
+          <t>13,71; 25,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 22,85</t>
+          <t>14,04; 25,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 23,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 25,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 30,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>21,62%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 24,92</t>
+          <t>14,14; 28,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 24,42</t>
+          <t>13,99; 29,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 23,7</t>
+          <t>13,57; 28,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 22,23</t>
+          <t>13,45; 28,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 25,61</t>
+          <t>18,75; 33,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 26,04</t>
+          <t>15,56; 27,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,74</t>
+          <t>15,95; 28,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 25,93</t>
+          <t>16,02; 28,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,59</t>
+          <t>15,91; 28,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 23,64</t>
+          <t>24,06; 39,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 22,64</t>
+          <t>16,57; 26,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 22,35</t>
+          <t>16,86; 26,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 26,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 26,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 34,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 19,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 22,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 19,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,47; 24,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 25,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 23,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 23,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 40,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,31; 24,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 24,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,64; 24,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 23,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,57; 32,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 22,3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 23,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 21,53</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 21,81</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 33,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12798</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15151</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13230</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13075</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77450</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15674</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13732</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12839</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41986</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27716</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30825</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26962</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25914</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>119436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4441; 27946</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3848; 33375</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3580; 29123</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3057; 29305</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24445; 137166</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6269; 29101</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5502; 34452</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5606; 25990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4333; 27300</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13161; 95588</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14586; 47364</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16414; 57576</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14018; 47239</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13454; 47884</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>48284; 222861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54443</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62427</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50210</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59511</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>106630</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82626</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>102620</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78828</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76456</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>110836</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137069</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>165047</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>129038</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>135967</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>217466</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28225; 110248</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31656; 134597</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26734; 99541</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33110; 122210</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63463; 189248</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61355; 107235</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76430; 133450</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56158; 103948</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53932; 101125</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83098; 145200</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>103747; 191294</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>125187; 230860</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>95608; 176554</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>99948; 195120</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>167327; 304742</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>59147</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69247</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56402</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54827</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>89256</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>78069</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95361</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75399</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71007</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118885</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>137216</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>164608</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>131801</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>125834</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>208141</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40436; 82178</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46582; 96653</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38043; 79271</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37027; 78403</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>65069; 117832</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55968; 100602</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68346; 123131</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54930; 98499</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51810; 92898</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93470; 151547</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106974; 168069</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>128322; 202143</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>104043; 162968</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>99355; 158633</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>169318; 252480</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>126389</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>146825</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>119842</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>127413</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>273336</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>175613</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>213654</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>167959</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>160302</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>271707</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>302001</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>360480</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>287801</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>287715</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>545043</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>94155; 185325</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105728; 225703</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>85980; 178814</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>90783; 185842</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>189258; 415111</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>141589; 211505</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>169753; 257146</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>138772; 203925</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>131976; 196028</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>222532; 350996</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>252970; 362044</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>304333; 447298</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>242286; 343166</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>242536; 350075</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>448959; 699546</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
